--- a/biology/Botanique/Flushing_Meadows_-_Corona_Park/Flushing_Meadows_-_Corona_Park.xlsx
+++ b/biology/Botanique/Flushing_Meadows_-_Corona_Park/Flushing_Meadows_-_Corona_Park.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Flushing Meadows - Corona Park (aussi appelé « Flushing Meadows Park » voire simplement « Flushing Meadows ») est un parc public de la ville de New York, aux États-Unis, situé dans le quartier de Flushing, dans l'arrondissement de Queens, à proximité de l'aéroport LaGuardia.
@@ -516,12 +528,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Période 1939-1964
-Auparavant Flushing Meadows était juste un terrain vague, une « vallée de cendres » (valley of ashes) poussiéreuses comme le surnommait l'écrivain américain F. Scott Fitzgerald dans Gatsby le Magnifique. Cependant, l'urbaniste Robert Moses aménagea le lieu, notamment pour les préparatifs de la Foire internationale de New York 1939-1940. Un pourcentage important des profits de la foire devaient être alloués à la création de Flushing Meadows Corona Park. Malheureusement l'évènement international de 1939 ayant échoué financièrement, le parc ne fut pas réalisé.
-Par la suite, le site était en grande partie inutilisé jusqu'au début des années 1960 (la plupart des sessions de l'Assemblée générale de Nations unies s'y sont tenues de 1946 à 1950[1] dans l'actuel bâtiment du musée d'Art du Queens (Queens Museum of Art)[2], avant de s'installer définitivement à Manhattan), quand une nouvelle société pour la Foire internationale fut conçue pour parrainer une suite à 1939 avec, à nouveau à la barre du projet, Robert Moses. Comme lors de 1939, l'évènement échoua en termes de bénéfices, mais laissa derrière lui plusieurs importantes structures qui ont fourni une base pour l'unique « oasis urbaine » qui avait été envisagée.
-Depuis 1965
-Depuis 1978, Flushing Meadows accueille le tournoi du Grand Chelem de tennis de l'US Open, succédant ainsi à Forest Hills, également dans le Queens. La première édition à Flushing Meadows, en 1978 donc, fut la quatre-vingt-huitième édition du tournoi. Elle se déroule dans l'USTA National Tennis Center.
-Aujourd'hui, Flushing Meadows Corona Park se trouve au milieu d'une période passionnante et historique. Un programme de plusieurs millions de dollars, s'étalant sur plusieurs années et qui a commencé en 1987, est bien avancé. À ce jour, le Queens Zoo, le Queens Museum of Art, le Theatre in the Park, trois terrains de jeux sur le thème des dinosaures et quatre entrées de nouvelles routes ont été reconstruits. Aujourd'hui, le parc est un refuge pour les millions de personnes qui jouent, pique-niquent, lisent, se détendent, se baignent...
+          <t>Période 1939-1964</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Auparavant Flushing Meadows était juste un terrain vague, une « vallée de cendres » (valley of ashes) poussiéreuses comme le surnommait l'écrivain américain F. Scott Fitzgerald dans Gatsby le Magnifique. Cependant, l'urbaniste Robert Moses aménagea le lieu, notamment pour les préparatifs de la Foire internationale de New York 1939-1940. Un pourcentage important des profits de la foire devaient être alloués à la création de Flushing Meadows Corona Park. Malheureusement l'évènement international de 1939 ayant échoué financièrement, le parc ne fut pas réalisé.
+Par la suite, le site était en grande partie inutilisé jusqu'au début des années 1960 (la plupart des sessions de l'Assemblée générale de Nations unies s'y sont tenues de 1946 à 1950 dans l'actuel bâtiment du musée d'Art du Queens (Queens Museum of Art), avant de s'installer définitivement à Manhattan), quand une nouvelle société pour la Foire internationale fut conçue pour parrainer une suite à 1939 avec, à nouveau à la barre du projet, Robert Moses. Comme lors de 1939, l'évènement échoua en termes de bénéfices, mais laissa derrière lui plusieurs importantes structures qui ont fourni une base pour l'unique « oasis urbaine » qui avait été envisagée.
 </t>
         </is>
       </c>
@@ -547,10 +561,50 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Depuis 1965</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis 1978, Flushing Meadows accueille le tournoi du Grand Chelem de tennis de l'US Open, succédant ainsi à Forest Hills, également dans le Queens. La première édition à Flushing Meadows, en 1978 donc, fut la quatre-vingt-huitième édition du tournoi. Elle se déroule dans l'USTA National Tennis Center.
+Aujourd'hui, Flushing Meadows Corona Park se trouve au milieu d'une période passionnante et historique. Un programme de plusieurs millions de dollars, s'étalant sur plusieurs années et qui a commencé en 1987, est bien avancé. À ce jour, le Queens Zoo, le Queens Museum of Art, le Theatre in the Park, trois terrains de jeux sur le thème des dinosaures et quatre entrées de nouvelles routes ont été reconstruits. Aujourd'hui, le parc est un refuge pour les millions de personnes qui jouent, pique-niquent, lisent, se détendent, se baignent...
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Flushing_Meadows_-_Corona_Park</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flushing_Meadows_-_Corona_Park</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Dans la culture populaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>En 1997, dans le film Men in Black, l'Agent J (Will Smith) et l'Agent K (Tommy Lee Jones) tentent de stopper Edgar le cafard (Vincent D'Onofrio) de quitter la Terre dans une tour d'observation, qui a été transformée en vaisseau spatial. Celui-ci s'écrase dans l'Unisphère.
 En 1997, dans l'épisode Homer contre New York de la série Les Simpson, Homer, qui a très envie d'uriner, rêve de Flushing Meadows comme d'un lieu où se trouvent d'innombrables toilettes (jeu de mots avec Flushing).
